--- a/BL_nais_einheiten_unique_v3_mf.xlsx
+++ b/BL_nais_einheiten_unique_v3_mf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F70489-C60E-4962-A607-606E75F0A0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C96534-E810-43D6-8867-E06AFF2B5FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -875,18 +875,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>NAIS1
-2025</t>
-  </si>
-  <si>
-    <t>NaiS2
-2025</t>
-  </si>
-  <si>
-    <t>tahs
-2025</t>
-  </si>
-  <si>
     <t>sm um</t>
   </si>
   <si>
@@ -963,6 +951,15 @@
   </si>
   <si>
     <t>8S</t>
+  </si>
+  <si>
+    <t>nais1</t>
+  </si>
+  <si>
+    <t>nais2</t>
+  </si>
+  <si>
+    <t>hs</t>
   </si>
 </sst>
 </file>
@@ -1353,17 +1350,17 @@
   <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="118.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="5" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="5"/>
+    <col min="3" max="3" width="118.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>282</v>
       </c>
@@ -1374,22 +1371,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7314</v>
       </c>
@@ -1403,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>264</v>
       </c>
@@ -1420,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1437,10 +1434,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -1454,13 +1451,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3133</v>
       </c>
@@ -1474,10 +1471,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9070</v>
       </c>
@@ -1494,10 +1491,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>23850</v>
       </c>
@@ -1514,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24986</v>
       </c>
@@ -1531,13 +1528,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1981</v>
       </c>
@@ -1551,10 +1548,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1215</v>
       </c>
@@ -1568,10 +1565,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3263</v>
       </c>
@@ -1585,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2764</v>
       </c>
@@ -1602,10 +1599,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>668</v>
       </c>
@@ -1619,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1606</v>
       </c>
@@ -1639,10 +1636,10 @@
         <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37</v>
       </c>
@@ -1656,10 +1653,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1632</v>
       </c>
@@ -1676,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1714</v>
       </c>
@@ -1696,10 +1693,10 @@
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3422</v>
       </c>
@@ -1716,10 +1713,10 @@
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12988</v>
       </c>
@@ -1736,10 +1733,10 @@
         <v>48</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1010</v>
       </c>
@@ -1750,13 +1747,13 @@
         <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21089</v>
       </c>
@@ -1767,16 +1764,16 @@
         <v>262</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>101</v>
       </c>
@@ -1801,16 +1798,16 @@
         <v>63</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E24" s="5">
         <v>39</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>101</v>
       </c>
@@ -1821,16 +1818,16 @@
         <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1161</v>
       </c>
@@ -1841,16 +1838,16 @@
         <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F26" s="5">
         <v>16</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1264</v>
       </c>
@@ -1861,7 +1858,7 @@
         <v>116</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E27" s="5">
         <v>39</v>
@@ -1870,10 +1867,10 @@
         <v>19</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1264</v>
       </c>
@@ -1884,19 +1881,19 @@
         <v>116</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9081</v>
       </c>
@@ -1907,7 +1904,7 @@
         <v>201</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E29" s="5">
         <v>39</v>
@@ -1916,10 +1913,10 @@
         <v>14</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9081</v>
       </c>
@@ -1930,19 +1927,19 @@
         <v>201</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F30" s="5">
         <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20596</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>260</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E31" s="5">
         <v>39</v>
@@ -1962,10 +1959,10 @@
         <v>65</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20596</v>
       </c>
@@ -1976,19 +1973,19 @@
         <v>260</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F32" s="5">
         <v>65</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>18380</v>
       </c>
@@ -1999,16 +1996,16 @@
         <v>253</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E33" s="5">
         <v>39</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>17095</v>
       </c>
@@ -2022,10 +2019,10 @@
         <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>95</v>
       </c>
@@ -2039,10 +2036,10 @@
         <v>48</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>20076</v>
       </c>
@@ -2056,10 +2053,10 @@
         <v>61</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2073,10 +2070,10 @@
         <v>62</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>122</v>
       </c>
@@ -2093,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2110,10 +2107,10 @@
         <v>65</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>876</v>
       </c>
@@ -2124,10 +2121,10 @@
         <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>988</v>
       </c>
@@ -2141,10 +2138,10 @@
         <v>39</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>8896</v>
       </c>
@@ -2158,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>9414</v>
       </c>
@@ -2175,10 +2172,10 @@
         <v>26</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11224</v>
       </c>
@@ -2192,10 +2189,10 @@
         <v>35</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12051</v>
       </c>
@@ -2209,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>14495</v>
       </c>
@@ -2226,10 +2223,10 @@
         <v>21</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>15246</v>
       </c>
@@ -2243,10 +2240,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>18842</v>
       </c>
@@ -2260,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>24633</v>
       </c>
@@ -2277,10 +2274,10 @@
         <v>14</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>24634</v>
       </c>
@@ -2294,10 +2291,10 @@
         <v>23</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>24735</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>275</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E51" s="5">
         <v>14</v>
@@ -2317,10 +2314,10 @@
         <v>39</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>24735</v>
       </c>
@@ -2331,19 +2328,19 @@
         <v>275</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E52" s="5">
         <v>14</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25046</v>
       </c>
@@ -2357,10 +2354,10 @@
         <v>90</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>249</v>
       </c>
@@ -2371,10 +2368,10 @@
         <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>18</v>
       </c>
@@ -2388,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1511</v>
       </c>
@@ -2405,13 +2402,13 @@
         <v>23</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>12886</v>
       </c>
@@ -2425,10 +2422,10 @@
         <v>23</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>15043</v>
       </c>
@@ -2445,10 +2442,10 @@
         <v>39</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2462,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>854</v>
       </c>
@@ -2479,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1352</v>
       </c>
@@ -2499,10 +2496,10 @@
         <v>21</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>23740</v>
       </c>
@@ -2519,10 +2516,10 @@
         <v>62</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41</v>
       </c>
@@ -2533,13 +2530,13 @@
         <v>50</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>21625</v>
       </c>
@@ -2550,16 +2547,16 @@
         <v>264</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F64" s="5">
         <v>14</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>21655</v>
       </c>
@@ -2570,16 +2567,16 @@
         <v>265</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>21660</v>
       </c>
@@ -2590,16 +2587,16 @@
         <v>266</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>17</v>
       </c>
@@ -2613,10 +2610,10 @@
         <v>21</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1427</v>
       </c>
@@ -2633,10 +2630,10 @@
         <v>100</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2085</v>
       </c>
@@ -2653,10 +2650,10 @@
         <v>48</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2260</v>
       </c>
@@ -2670,10 +2667,10 @@
         <v>21</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2456</v>
       </c>
@@ -2687,13 +2684,13 @@
         <v>21</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>4310</v>
       </c>
@@ -2710,10 +2707,10 @@
         <v>22</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>15317</v>
       </c>
@@ -2727,13 +2724,13 @@
         <v>21</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>16365</v>
       </c>
@@ -2750,10 +2747,10 @@
         <v>48</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>20405</v>
       </c>
@@ -2770,10 +2767,10 @@
         <v>2</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>25084</v>
       </c>
@@ -2790,10 +2787,10 @@
         <v>228</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>675</v>
       </c>
@@ -2804,13 +2801,13 @@
         <v>97</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1890</v>
       </c>
@@ -2821,16 +2818,16 @@
         <v>140</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2706</v>
       </c>
@@ -2841,13 +2838,13 @@
         <v>153</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>596</v>
       </c>
@@ -2858,13 +2855,13 @@
         <v>84</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2277</v>
       </c>
@@ -2875,13 +2872,13 @@
         <v>145</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45</v>
       </c>
@@ -2895,10 +2892,10 @@
         <v>21</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1626</v>
       </c>
@@ -2915,10 +2912,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>24989</v>
       </c>
@@ -2935,10 +2932,10 @@
         <v>48</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>242</v>
       </c>
@@ -2952,10 +2949,10 @@
         <v>71</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>829</v>
       </c>
@@ -2969,10 +2966,10 @@
         <v>71</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1399</v>
       </c>
@@ -2989,10 +2986,10 @@
         <v>122</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>14755</v>
       </c>
@@ -3006,13 +3003,13 @@
         <v>71</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>19</v>
       </c>
@@ -3026,10 +3023,10 @@
         <v>25</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1738</v>
       </c>
@@ -3046,10 +3043,10 @@
         <v>22</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>12972</v>
       </c>
@@ -3066,10 +3063,10 @@
         <v>48</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>24902</v>
       </c>
@@ -3083,13 +3080,13 @@
         <v>25</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>114</v>
       </c>
@@ -3103,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2985</v>
       </c>
@@ -3123,10 +3120,10 @@
         <v>19</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>24805</v>
       </c>
@@ -3143,10 +3140,10 @@
         <v>14</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>777</v>
       </c>
@@ -3160,10 +3157,10 @@
         <v>102</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>457</v>
       </c>
@@ -3177,10 +3174,10 @@
         <v>25</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>15903</v>
       </c>
@@ -3197,10 +3194,10 @@
         <v>22</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>682</v>
       </c>
@@ -3214,10 +3211,10 @@
         <v>98</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>29</v>
       </c>
@@ -3231,10 +3228,10 @@
         <v>25</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1297</v>
       </c>
@@ -3251,10 +3248,10 @@
         <v>39</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2384</v>
       </c>
@@ -3268,10 +3265,10 @@
         <v>25</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>25</v>
       </c>
@@ -3285,10 +3282,10 @@
         <v>14</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1289</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>117</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E104" s="5">
         <v>14</v>
@@ -3308,10 +3305,10 @@
         <v>39</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1289</v>
       </c>
@@ -3322,19 +3319,19 @@
         <v>117</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E105" s="5">
         <v>14</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1670</v>
       </c>
@@ -3351,10 +3348,10 @@
         <v>64</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>8951</v>
       </c>
@@ -3371,10 +3368,10 @@
         <v>23</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>13493</v>
       </c>
@@ -3388,10 +3385,10 @@
         <v>14</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>18900</v>
       </c>
@@ -3408,10 +3405,10 @@
         <v>21</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>239</v>
       </c>
@@ -3428,10 +3425,10 @@
         <v>16</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>177</v>
       </c>
@@ -3445,10 +3442,10 @@
         <v>14</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>11</v>
       </c>
@@ -3462,10 +3459,10 @@
         <v>16</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3289</v>
       </c>
@@ -3482,10 +3479,10 @@
         <v>48</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>20287</v>
       </c>
@@ -3502,10 +3499,10 @@
         <v>64</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>20856</v>
       </c>
@@ -3522,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>662</v>
       </c>
@@ -3542,10 +3539,10 @@
         <v>48</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2398</v>
       </c>
@@ -3559,10 +3556,10 @@
         <v>147</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>628</v>
       </c>
@@ -3576,10 +3573,10 @@
         <v>18</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>12881</v>
       </c>
@@ -3593,10 +3590,10 @@
         <v>18</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>13217</v>
       </c>
@@ -3613,10 +3610,10 @@
         <v>20</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>18140</v>
       </c>
@@ -3630,10 +3627,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1799</v>
       </c>
@@ -3644,13 +3641,13 @@
         <v>137</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>15</v>
       </c>
@@ -3664,10 +3661,10 @@
         <v>19</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>12580</v>
       </c>
@@ -3678,7 +3675,7 @@
         <v>218</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>19</v>
@@ -3687,10 +3684,10 @@
         <v>39</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>12580</v>
       </c>
@@ -3701,19 +3698,19 @@
         <v>218</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>24584</v>
       </c>
@@ -3730,10 +3727,10 @@
         <v>25</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>508</v>
       </c>
@@ -3747,10 +3744,10 @@
         <v>26</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>34</v>
       </c>
@@ -3764,10 +3761,10 @@
         <v>26</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2651</v>
       </c>
@@ -3781,10 +3778,10 @@
         <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42</v>
       </c>
@@ -3798,10 +3795,10 @@
         <v>26</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>14762</v>
       </c>
@@ -3815,10 +3812,10 @@
         <v>26</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>15844</v>
       </c>
@@ -3835,10 +3832,10 @@
         <v>22</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>858</v>
       </c>
@@ -3852,10 +3849,10 @@
         <v>106</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>3135</v>
       </c>
@@ -3869,10 +3866,10 @@
         <v>158</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>642</v>
       </c>
@@ -3886,10 +3883,10 @@
         <v>90</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>9180</v>
       </c>
@@ -3906,10 +3903,10 @@
         <v>22</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>9232</v>
       </c>
@@ -3926,10 +3923,10 @@
         <v>22</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>99</v>
       </c>
@@ -3943,10 +3940,10 @@
         <v>90</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>636</v>
       </c>
@@ -3960,10 +3957,10 @@
         <v>88</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>10882</v>
       </c>
@@ -3974,10 +3971,10 @@
         <v>210</v>
       </c>
       <c r="H140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>3569</v>
       </c>
@@ -3988,13 +3985,13 @@
         <v>165</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>15731</v>
       </c>
@@ -4005,13 +4002,13 @@
         <v>238</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>5156</v>
       </c>
@@ -4022,13 +4019,13 @@
         <v>183</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>18225</v>
       </c>
@@ -4042,10 +4039,10 @@
         <v>6</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>33</v>
       </c>
@@ -4059,10 +4056,10 @@
         <v>39</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>418</v>
       </c>
@@ -4073,13 +4070,13 @@
         <v>78</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>11489</v>
       </c>
@@ -4090,13 +4087,13 @@
         <v>212</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2671</v>
       </c>
@@ -4110,10 +4107,10 @@
         <v>39</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>7387</v>
       </c>
@@ -4127,10 +4124,10 @@
         <v>194</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>7188</v>
       </c>
@@ -4144,10 +4141,10 @@
         <v>194</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>22</v>
       </c>
@@ -4161,10 +4158,10 @@
         <v>27</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1758</v>
       </c>
@@ -4181,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>4331</v>
       </c>
@@ -4198,10 +4195,10 @@
         <v>27</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>12015</v>
       </c>
@@ -4218,10 +4215,10 @@
         <v>23</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>15736</v>
       </c>
@@ -4235,10 +4232,10 @@
         <v>27</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -4252,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>4488</v>
       </c>
@@ -4272,10 +4269,10 @@
         <v>2</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>4489</v>
       </c>
@@ -4292,10 +4289,10 @@
         <v>2</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>4792</v>
       </c>
@@ -4312,10 +4309,10 @@
         <v>39</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>23299</v>
       </c>
@@ -4329,10 +4326,10 @@
         <v>8</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>11880</v>
       </c>
@@ -4346,10 +4343,10 @@
         <v>8</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>30</v>
       </c>
@@ -4363,10 +4360,10 @@
         <v>35</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>13193</v>
       </c>
@@ -4380,10 +4377,10 @@
         <v>35</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>75</v>
       </c>
@@ -4400,10 +4397,10 @@
         <v>23</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>3656</v>
       </c>
@@ -4420,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>3815</v>
       </c>
@@ -4440,10 +4437,10 @@
         <v>23</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>5018</v>
       </c>
@@ -4457,10 +4454,10 @@
         <v>39</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>5581</v>
       </c>
@@ -4474,10 +4471,10 @@
         <v>39</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>8943</v>
       </c>
@@ -4491,10 +4488,10 @@
         <v>39</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>4586</v>
       </c>
@@ -4508,10 +4505,10 @@
         <v>27</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>7187</v>
       </c>
@@ -4525,10 +4522,10 @@
         <v>27</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>4584</v>
       </c>
@@ -4542,10 +4539,10 @@
         <v>8</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>5064</v>
       </c>
@@ -4559,10 +4556,10 @@
         <v>8</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>5576</v>
       </c>
@@ -4576,10 +4573,10 @@
         <v>35</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>767</v>
       </c>
@@ -4593,10 +4590,10 @@
         <v>100</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>14986</v>
       </c>
@@ -4607,13 +4604,13 @@
         <v>234</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>14588</v>
       </c>
@@ -4627,10 +4624,10 @@
         <v>228</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>9106</v>
       </c>
@@ -4644,10 +4641,10 @@
         <v>202</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1401</v>
       </c>
@@ -4664,10 +4661,10 @@
         <v>21</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1417</v>
       </c>
@@ -4681,10 +4678,10 @@
         <v>122</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1805</v>
       </c>
@@ -4698,10 +4695,10 @@
         <v>138</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>14903</v>
       </c>
@@ -4715,10 +4712,10 @@
         <v>138</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1496</v>
       </c>
@@ -4732,13 +4729,13 @@
         <v>202</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>12536</v>
       </c>
@@ -4755,10 +4752,10 @@
         <v>21</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -4772,10 +4769,10 @@
         <v>2</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -4792,10 +4789,10 @@
         <v>16</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>625</v>
       </c>
@@ -4809,10 +4806,10 @@
         <v>2</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1393</v>
       </c>
@@ -4826,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>4456</v>
       </c>
@@ -4846,10 +4843,10 @@
         <v>39</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>13687</v>
       </c>
@@ -4866,10 +4863,10 @@
         <v>11</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>16450</v>
       </c>
@@ -4886,10 +4883,10 @@
         <v>39</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>21315</v>
       </c>
@@ -4906,10 +4903,10 @@
         <v>14</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>23716</v>
       </c>
@@ -4926,10 +4923,10 @@
         <v>39</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>23736</v>
       </c>
@@ -4943,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>26</v>
       </c>
@@ -4963,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>32</v>
       </c>
@@ -4983,10 +4980,10 @@
         <v>11</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>3282</v>
       </c>
@@ -5003,10 +5000,10 @@
         <v>11</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>16604</v>
       </c>
@@ -5023,10 +5020,10 @@
         <v>21</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>9592</v>
       </c>
@@ -5040,10 +5037,10 @@
         <v>2</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>10</v>
       </c>
@@ -5060,10 +5057,10 @@
         <v>90</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>13</v>
       </c>
@@ -5077,10 +5074,10 @@
         <v>13</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>51</v>
       </c>
@@ -5094,19 +5091,18 @@
         <v>13</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>12854</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:H203" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G203">
     <sortCondition ref="B2:B203"/>
   </sortState>
@@ -5123,16 +5119,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
